--- a/documents/Resource Requirements2/背包界面美术需求.xlsx
+++ b/documents/Resource Requirements2/背包界面美术需求.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>编号</t>
   </si>
@@ -70,54 +70,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分页1-全部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页2-道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页3-装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页4-宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页5-其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100*75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>整理按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击返回按钮，返回主界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二级分页1-全部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级分页2-武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级分页3-防具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级分页4-鞋子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>85*65</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,10 +155,6 @@
   </si>
   <si>
     <t>装备弹出框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600*550</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -276,6 +232,22 @@
   <si>
     <t>1.需处理属性显示区域，即蓝色区域，显示装备的主属性与附加属性，主属性字号约为30，附加属性字号约为25，可制作凹槽
 2.需处理装备简介区域，即白色区域，可制作凹槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级分页按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂定1种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>580*520</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,15 +383,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>542925</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1981200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -437,8 +409,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11696700" y="5000625"/>
-          <a:ext cx="4029075" cy="3629025"/>
+          <a:off x="10953750" y="5067300"/>
+          <a:ext cx="4029075" cy="3800475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -459,13 +431,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3000375</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>12830</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -512,8 +484,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>569913</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1941513</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -837,17 +809,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.125" customWidth="1"/>
@@ -870,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -927,7 +900,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -949,13 +922,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -963,13 +936,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -977,13 +950,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -991,27 +964,30 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="27">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1019,13 +995,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1033,7 +1009,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1047,13 +1023,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1061,165 +1037,165 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="40.5">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="211.5" customHeight="1">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="27">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="54">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="40.5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="211.5" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1230,122 +1206,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
         <v>50</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="54">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
